--- a/RQ1/public_udf_result.xlsx
+++ b/RQ1/public_udf_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinyuliu/Documents/GitHub/lambda_artifact/RQ1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C3788C-596C-114B-A2B0-809402415262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6082F535-36D8-FD4B-905B-6B745C088930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11980" yWindow="2160" windowWidth="27640" windowHeight="16940" xr2:uid="{4F562E65-2133-3547-9E02-65576EF9A29D}"/>
+    <workbookView xWindow="10560" yWindow="1960" windowWidth="27640" windowHeight="16940" xr2:uid="{4F562E65-2133-3547-9E02-65576EF9A29D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Name (from ProcBench)</t>
   </si>
@@ -111,6 +111,36 @@
   </si>
   <si>
     <t>Class of items that is returned the most on catalog</t>
+  </si>
+  <si>
+    <t>sudf_dateformat</t>
+  </si>
+  <si>
+    <t>sudf_nmonthsbefore</t>
+  </si>
+  <si>
+    <t>sudf_stddev</t>
+  </si>
+  <si>
+    <t>sudf_max</t>
+  </si>
+  <si>
+    <t>sudf_string_manipulatin</t>
+  </si>
+  <si>
+    <t>String manipulation (split and concat)</t>
+  </si>
+  <si>
+    <t>get n month ago of an input date</t>
+  </si>
+  <si>
+    <t>get the standard deviation of a list</t>
+  </si>
+  <si>
+    <t>return max of a list</t>
+  </si>
+  <si>
+    <t>convert a string of date to another dateformat</t>
   </si>
 </sst>
 </file>
@@ -182,12 +212,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,16 +540,16 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50.33203125" customWidth="1"/>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="8" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="23.83203125" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" style="8" customWidth="1"/>
     <col min="6" max="6" width="59.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -522,16 +557,16 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -542,16 +577,16 @@
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>1</v>
       </c>
       <c r="C2" s="4">
         <v>0</v>
       </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5">
         <v>1</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -562,16 +597,16 @@
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="4">
         <v>0</v>
       </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5">
         <v>1</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -582,16 +617,16 @@
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="5">
         <v>1</v>
       </c>
       <c r="C4" s="4">
         <v>0</v>
       </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
         <v>1</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -602,16 +637,16 @@
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <v>1</v>
       </c>
       <c r="C5" s="4">
         <v>0</v>
       </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
         <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
@@ -622,16 +657,16 @@
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="5">
         <v>1</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
       </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
         <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -642,16 +677,16 @@
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="5">
         <v>1</v>
       </c>
       <c r="C7" s="4">
         <v>0</v>
       </c>
-      <c r="D7" s="4">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
@@ -662,16 +697,16 @@
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="5">
         <v>1</v>
       </c>
       <c r="C8" s="4">
         <v>0</v>
       </c>
-      <c r="D8" s="4">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
         <v>1</v>
       </c>
       <c r="F8" s="4" t="s">
@@ -682,16 +717,16 @@
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="5">
         <v>1</v>
       </c>
       <c r="C9" s="4">
         <v>0</v>
       </c>
-      <c r="D9" s="4">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
         <v>1</v>
       </c>
       <c r="F9" s="4" t="s">
@@ -702,16 +737,16 @@
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="5">
         <v>1</v>
       </c>
       <c r="C10" s="4">
         <v>0</v>
       </c>
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
         <v>1</v>
       </c>
       <c r="F10" s="4" t="s">
@@ -722,65 +757,165 @@
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="5">
         <v>1</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
       </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
         <v>1</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>24</v>
       </c>
     </row>
+    <row r="12" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="2"/>
+      <c r="B18" s="7"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
     </row>
     <row r="24" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
-      <c r="B24" s="1"/>
+      <c r="B24" s="9"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
     </row>
     <row r="25" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
-      <c r="B25" s="1"/>
+      <c r="B25" s="9"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
     </row>
     <row r="26" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
-      <c r="B26" s="1"/>
+      <c r="B26" s="9"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
     </row>
     <row r="27" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
-      <c r="B27" s="1"/>
+      <c r="B27" s="9"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
     </row>
     <row r="28" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
-      <c r="B28" s="1"/>
+      <c r="B28" s="9"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
